--- a/Used_names_list.xlsx
+++ b/Used_names_list.xlsx
@@ -96,18 +96,12 @@
     <t>a matrix that contains the occurrence points of a species and the environmental data of the find location</t>
   </si>
   <si>
-    <t>species</t>
-  </si>
-  <si>
     <t>ranpoints</t>
   </si>
   <si>
     <t>M.shp, shp</t>
   </si>
   <si>
-    <t>save.map, save.p</t>
-  </si>
-  <si>
     <t>cloud</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>sample size</t>
+  </si>
+  <si>
+    <t>save.p</t>
+  </si>
+  <si>
+    <t>species, occ</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -538,10 +538,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -596,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -607,7 +607,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -615,26 +615,26 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Used_names_list.xlsx
+++ b/Used_names_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>bios</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>species, occ</t>
+  </si>
+  <si>
+    <t>G.occ</t>
+  </si>
+  <si>
+    <t>a matrix with three columns, where the second and third column contain the coordinates in longitude and latitude</t>
+  </si>
+  <si>
+    <t>suit.Estck</t>
+  </si>
+  <si>
+    <t>a rasterstack that contains calculated suitability areas for a species and and environmental layers, such as temperature or precipitation</t>
   </si>
 </sst>
 </file>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,6 +647,22 @@
       </c>
       <c r="D14" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Used_names_list.xlsx
+++ b/Used_names_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>bios</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>a rasterstack that contains calculated suitability areas for a species and and environmental layers, such as temperature or precipitation</t>
+  </si>
+  <si>
+    <t>sp.name</t>
+  </si>
+  <si>
+    <t>species name</t>
+  </si>
+  <si>
+    <t>raster with raw output from SDM</t>
+  </si>
+  <si>
+    <t>mod.Ecoords?</t>
+  </si>
+  <si>
+    <t>occ.suit</t>
+  </si>
+  <si>
+    <t>mod.suit</t>
   </si>
 </sst>
 </file>
@@ -492,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,6 +681,32 @@
       </c>
       <c r="D16" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Used_names_list.xlsx
+++ b/Used_names_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>bios</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>mod.suit</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>envall (M_E)</t>
+  </si>
+  <si>
+    <t>data.sp</t>
+  </si>
+  <si>
+    <t>data (occ_GE)</t>
   </si>
 </sst>
 </file>
@@ -510,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,6 +719,25 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
